--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -845,40 +845,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -263,8 +263,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -277,10 +277,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -319,13 +319,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -338,13 +338,13 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -358,13 +358,13 @@
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].use</t>
@@ -377,22 +377,22 @@
 </t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -411,22 +411,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -438,16 +438,16 @@
     <t>Extension.value[x].system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
   </si>
   <si>
     <t>保険医療機関コードの名前空間を識別するURIを指定。固定値。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.23</t>
@@ -465,13 +465,13 @@
     <t>Extension.value[x].value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>一意の値 / The value that is unique</t>
   </si>
   <si>
     <t>保険医療機関番号７桁。半角数字で７桁固定。</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -490,10 +490,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -509,13 +509,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -855,7 +855,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -868,7 +868,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -263,8 +263,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -277,10 +277,10 @@
 </t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -319,13 +319,13 @@
 </t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -338,13 +338,13 @@
 </t>
   </si>
   <si>
-    <t>拡張値の値 / Value of extension</t>
-  </si>
-  <si>
-    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -358,13 +358,13 @@
 user content</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].use</t>
@@ -377,22 +377,22 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>この識別子の目的。 / The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -411,22 +411,22 @@
 </t>
   </si>
   <si>
-    <t>識別子の説明 / Description of identifier</t>
-  </si>
-  <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -438,16 +438,16 @@
     <t>Extension.value[x].system</t>
   </si>
   <si>
-    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+    <t>The namespace for the identifier value</t>
   </si>
   <si>
     <t>保険医療機関コードの名前空間を識別するURIを指定。固定値。</t>
   </si>
   <si>
-    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.23</t>
@@ -465,13 +465,13 @@
     <t>Extension.value[x].value</t>
   </si>
   <si>
-    <t>一意の値 / The value that is unique</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>保険医療機関番号７桁。半角数字で７桁固定。</t>
   </si>
   <si>
-    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -490,10 +490,10 @@
 </t>
   </si>
   <si>
-    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -509,13 +509,13 @@
 </t>
   </si>
   <si>
-    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -855,7 +855,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -868,7 +868,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -1510,7 +1510,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1712,7 +1712,7 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
@@ -1816,7 +1816,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -2126,7 +2126,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2226,7 +2226,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -255,7 +255,7 @@
     <t>保険医療機関番号７桁。Identifier型の拡張
 「InsuranceOrganizationNo」を使用する。systemには医療機関コードを
 表すOID「1.2.392.100495.20.3.23」を指定する。
-電子処方箋 H7FHIR記述仕様書案の定義をベースにしているが、URLを以下に変更している 
+「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」の定義をベースにしているが、URLを以下に変更している 
 http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_InsuranceOrganizationNo</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -249,7 +249,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>保険医療機関番号７桁</t>
+    <t>保険医療機関番号７桁【詳細参照】</t>
   </si>
   <si>
     <t>保険医療機関番号７桁。Identifier型の拡張

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="165">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -263,53 +266,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -770,63 +773,63 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -885,214 +888,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1101,23 +1104,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>84</v>
@@ -1131,65 +1134,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>88</v>
@@ -1201,29 +1204,29 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>91</v>
@@ -1231,38 +1234,38 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>92</v>
@@ -1271,7 +1274,7 @@
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>94</v>
@@ -1280,28 +1283,28 @@
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1311,75 +1314,75 @@
         <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>83</v>
@@ -1388,138 +1391,138 @@
         <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>84</v>
@@ -1533,65 +1536,65 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>88</v>
@@ -1599,74 +1602,74 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>92</v>
@@ -1675,7 +1678,7 @@
         <v>93</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>94</v>
@@ -1684,16 +1687,16 @@
         <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>88</v>
@@ -1701,618 +1704,618 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Organization</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -839,7 +842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -849,41 +852,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="167.43359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -995,135 +998,141 @@
       <c r="AJ1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>85</v>
@@ -1131,199 +1140,205 @@
       <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -1334,98 +1349,101 @@
       <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
+      <c r="N5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>105</v>
@@ -1433,99 +1451,102 @@
       <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>85</v>
@@ -1533,102 +1554,105 @@
       <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>112</v>
@@ -1636,95 +1660,98 @@
       <c r="M8" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>116</v>
@@ -1742,29 +1769,29 @@
         <v>120</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
         <v>122</v>
@@ -1773,65 +1800,68 @@
         <v>123</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>128</v>
@@ -1846,29 +1876,29 @@
         <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
         <v>133</v>
@@ -1877,68 +1907,71 @@
         <v>134</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>138</v>
@@ -1950,99 +1983,102 @@
         <v>140</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
         <v>141</v>
       </c>
+      <c r="P11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>147</v>
@@ -2050,98 +2086,101 @@
       <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>151</v>
+        <v>108</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>154</v>
@@ -2149,99 +2188,102 @@
       <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>108</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>160</v>
@@ -2252,70 +2294,73 @@
       <c r="M14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>保険医療機関番号７桁【詳細参照】</t>
@@ -1030,16 +1034,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1098,7 +1102,7 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
@@ -1109,10 +1113,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1123,7 +1127,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1135,13 +1139,13 @@
         <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1192,13 +1196,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1207,15 +1211,15 @@
         <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1238,13 +1242,13 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1283,19 +1287,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1307,7 +1311,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1315,10 +1319,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1326,10 +1330,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1341,16 +1345,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1400,13 +1404,13 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
@@ -1415,15 +1419,15 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1434,7 +1438,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1446,13 +1450,13 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1503,30 +1507,30 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1537,7 +1541,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1549,13 +1553,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1606,13 +1610,13 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
@@ -1621,19 +1625,19 @@
         <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1652,16 +1656,16 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1699,19 +1703,19 @@
         <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1723,18 +1727,18 @@
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1745,31 +1749,31 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -1794,13 +1798,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1818,30 +1822,30 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1852,7 +1856,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -1861,22 +1865,22 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1901,13 +1905,13 @@
         <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>77</v>
@@ -1925,30 +1929,30 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1959,7 +1963,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -1968,35 +1972,35 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U11" t="s" s="2">
         <v>77</v>
@@ -2032,30 +2036,30 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2066,7 +2070,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2075,19 +2079,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2101,7 +2105,7 @@
         <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U12" t="s" s="2">
         <v>77</v>
@@ -2137,30 +2141,30 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2171,7 +2175,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2180,16 +2184,16 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2240,30 +2244,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2274,7 +2278,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2283,19 +2287,19 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2345,22 +2349,22 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>保険医療機関番号７桁【詳細参照】</t>
@@ -1034,16 +1030,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1102,7 +1098,7 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
@@ -1113,10 +1109,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1127,25 +1123,25 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1196,30 +1192,30 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1242,13 +1238,13 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1287,19 +1283,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1311,7 +1307,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1319,10 +1315,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1330,10 +1326,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1345,16 +1341,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1404,13 +1400,13 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
@@ -1419,15 +1415,15 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1438,7 +1434,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1450,13 +1446,13 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1507,30 +1503,30 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1541,25 +1537,25 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1610,34 +1606,34 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1656,16 +1652,16 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1703,19 +1699,19 @@
         <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC8" t="s" s="2">
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
+      <c r="AF8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -1727,18 +1723,18 @@
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1749,31 +1745,31 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="J9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -1798,54 +1794,54 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Y9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z9" t="s" s="2">
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1856,7 +1852,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -1865,22 +1861,22 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1905,54 +1901,54 @@
         <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AA10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1963,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -1972,94 +1968,94 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T11" t="s" s="2">
+      <c r="U11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="U11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF11" t="s" s="2">
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2070,28 +2066,28 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2105,66 +2101,66 @@
         <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2175,7 +2171,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2184,16 +2180,16 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2244,30 +2240,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2278,7 +2274,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2287,19 +2283,19 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2349,22 +2345,22 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -283,10 +283,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -318,8 +318,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -329,13 +329,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -348,13 +348,13 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -368,13 +368,13 @@
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].use</t>
@@ -387,22 +387,22 @@
 </t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -421,22 +421,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -448,16 +448,16 @@
     <t>Extension.value[x].system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
   </si>
   <si>
     <t>保険医療機関コードの名前空間を識別するURIを指定。固定値。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.23</t>
@@ -475,13 +475,13 @@
     <t>Extension.value[x].value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>一意の値 / The value that is unique</t>
   </si>
   <si>
     <t>保険医療機関番号７桁。半角数字で７桁固定。</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -500,10 +500,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -519,13 +519,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -869,7 +869,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="167.43359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -879,7 +879,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Organization</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -653,10 +542,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -846,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -857,13 +746,11 @@
   <cols>
     <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -871,863 +758,858 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>76</v>
+      <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>90</v>
@@ -1735,636 +1617,529 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Organization</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -542,10 +653,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -735,7 +846,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -746,11 +857,13 @@
   <cols>
     <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -758,858 +871,863 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>40</v>
+      <c r="H1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>90</v>
@@ -1617,529 +1735,636 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -352,9 +352,6 @@
     <t>urn:oid:1.2.392.100495.20.3.23</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
   </si>
   <si>
     <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -760,7 +754,7 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -1775,43 +1769,43 @@
         <v>40</v>
       </c>
       <c r="T10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>41</v>
@@ -1826,15 +1820,15 @@
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1860,13 +1854,13 @@
         <v>49</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -1880,7 +1874,7 @@
         <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s" s="2">
         <v>40</v>
@@ -1916,7 +1910,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>41</v>
@@ -1931,15 +1925,15 @@
         <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1962,13 +1956,13 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2019,7 +2013,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>41</v>
@@ -2034,15 +2028,15 @@
         <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2065,16 +2059,16 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2124,7 +2118,7 @@
         <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>41</v>
@@ -2139,7 +2133,7 @@
         <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -162,6 +162,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -205,10 +209,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -874,7 +874,7 @@
         <v>46</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>40</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -896,7 +896,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -908,13 +908,13 @@
         <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -965,13 +965,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -980,15 +980,15 @@
         <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1011,13 +1011,13 @@
         <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1056,19 +1056,19 @@
         <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>41</v>
@@ -1080,7 +1080,7 @@
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -1099,10 +1099,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -1176,10 +1176,10 @@
         <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -1207,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -1282,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
@@ -1310,7 +1310,7 @@
         <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -1322,13 +1322,13 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1379,13 +1379,13 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
@@ -1394,7 +1394,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1425,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>76</v>
@@ -1472,19 +1472,19 @@
         <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>41</v>
@@ -1496,10 +1496,10 @@
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1518,7 +1518,7 @@
         <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>
@@ -1597,7 +1597,7 @@
         <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
@@ -1625,7 +1625,7 @@
         <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>40</v>
@@ -1704,7 +1704,7 @@
         <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>40</v>
@@ -1732,7 +1732,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>40</v>
@@ -1811,7 +1811,7 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>40</v>
@@ -1839,7 +1839,7 @@
         <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -1851,7 +1851,7 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>110</v>
@@ -1916,7 +1916,7 @@
         <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>40</v>
@@ -1944,7 +1944,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -2019,7 +2019,7 @@
         <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
@@ -2047,7 +2047,7 @@
         <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -2124,7 +2124,7 @@
         <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -276,7 +276,7 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -151,10 +151,9 @@
     <t>保険医療機関番号７桁【詳細参照】</t>
   </si>
   <si>
-    <t>保険医療機関番号７桁。Identifier型の拡張
-「InsuranceOrganizationNo」を使用する。systemには医療機関コードを
-表すOID「1.2.392.100495.20.3.23」を指定する。
-「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」の定義をベースにしているが、URLを以下に変更している 
+    <t>保険医療機関番号７桁。Identifier型の拡張  
+「InsuranceOrganizationNo」を使用する。systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。  
+「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」の定義をベースにしているが、URLを以下に変更している  
 http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_InsuranceOrganizationNo</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="165">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Organization</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -728,7 +839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -739,11 +850,13 @@
   <cols>
     <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -751,1388 +864,1500 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>40</v>
+      <c r="I1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>120</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Organization</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -839,7 +728,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -850,13 +739,11 @@
   <cols>
     <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -864,1500 +751,1388 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>76</v>
+      <c r="AK1" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization-insuranceorganizationno.xlsx
@@ -386,7 +386,7 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
